--- a/cypress/downloads/Listado de Proyectos con Detalles - 06-04-2024.xlsx
+++ b/cypress/downloads/Listado de Proyectos con Detalles - 06-04-2024.xlsx
@@ -61,7 +61,7 @@
     <x:t>Fulgenzi</x:t>
   </x:si>
   <x:si>
-    <x:t>24</x:t>
+    <x:t>25</x:t>
   </x:si>
   <x:si>
     <x:t>Activo</x:t>

--- a/cypress/downloads/Listado de Proyectos con Detalles - 06-04-2024.xlsx
+++ b/cypress/downloads/Listado de Proyectos con Detalles - 06-04-2024.xlsx
@@ -61,46 +61,46 @@
     <x:t>Fulgenzi</x:t>
   </x:si>
   <x:si>
-    <x:t>25</x:t>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>José Matías</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marquez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Federico Lucas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vivienda Clásica con 2 habitaciones y hall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Completo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrés</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pérez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>German</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D´Gaudio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProjectTypeName2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Activo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>José Matías</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marquez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Federico Lucas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vivienda Clásica con 2 habitaciones y hall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Completo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrés</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pérez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>German</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D´Gaudio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProjectTypeName2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Daniela</x:t>
@@ -631,59 +631,59 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>29</x:v>
@@ -692,10 +692,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>31</x:v>
@@ -709,7 +709,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>33</x:v>
@@ -755,7 +755,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>11</x:v>
@@ -801,7 +801,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>43</x:v>
@@ -816,7 +816,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -836,10 +836,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -873,7 +873,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>47</x:v>
@@ -899,7 +899,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>54</x:v>
@@ -931,10 +931,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
